--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf7-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf7-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Gdf7</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.29395</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N2">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q2">
-        <v>1.338792531466666</v>
+        <v>1.029635942727778</v>
       </c>
       <c r="R2">
-        <v>12.0491327832</v>
+        <v>9.266723484549999</v>
       </c>
       <c r="S2">
-        <v>0.2163030132250088</v>
+        <v>0.06081598104393815</v>
       </c>
       <c r="T2">
-        <v>0.2163030132250088</v>
+        <v>0.06081598104393816</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.29395</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q3">
         <v>3.032185603127777</v>
@@ -638,10 +638,10 @@
         <v>27.28967042815</v>
       </c>
       <c r="S3">
-        <v>0.4898973270305839</v>
+        <v>0.1790976154862879</v>
       </c>
       <c r="T3">
-        <v>0.4898973270305839</v>
+        <v>0.1790976154862879</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.29395</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N4">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O4">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P4">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q4">
-        <v>0.49559646655</v>
+        <v>0.6364222938388888</v>
       </c>
       <c r="R4">
-        <v>4.46036819895</v>
+        <v>5.727800644549999</v>
       </c>
       <c r="S4">
-        <v>0.08007141251452472</v>
+        <v>0.03759061290683643</v>
       </c>
       <c r="T4">
-        <v>0.08007141251452471</v>
+        <v>0.03759061290683643</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.29395</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N5">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q5">
-        <v>0.7224593685277776</v>
+        <v>0.9709944201388888</v>
       </c>
       <c r="R5">
-        <v>6.502134316749999</v>
+        <v>8.73894978125</v>
       </c>
       <c r="S5">
-        <v>0.1167246863664523</v>
+        <v>0.05735228909403851</v>
       </c>
       <c r="T5">
-        <v>0.1167246863664523</v>
+        <v>0.05735228909403851</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,10 +794,10 @@
         <v>0.29395</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.3614274138912558</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,958 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N6">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O6">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P6">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q6">
-        <v>0.6003968269944444</v>
+        <v>0.4498549397111111</v>
       </c>
       <c r="R6">
-        <v>5.40357144295</v>
+        <v>4.0486944574</v>
       </c>
       <c r="S6">
-        <v>0.09700356086343023</v>
+        <v>0.0265709153601547</v>
       </c>
       <c r="T6">
-        <v>0.09700356086343022</v>
+        <v>0.0265709153601547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.06821033333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.204631</v>
+      </c>
+      <c r="I7">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="J7">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10.50827633333333</v>
+      </c>
+      <c r="N7">
+        <v>31.524829</v>
+      </c>
+      <c r="O7">
+        <v>0.1682660991018133</v>
+      </c>
+      <c r="P7">
+        <v>0.1682660991018134</v>
+      </c>
+      <c r="Q7">
+        <v>0.7167730314554444</v>
+      </c>
+      <c r="R7">
+        <v>6.450957283099</v>
+      </c>
+      <c r="S7">
+        <v>0.04233657090322201</v>
+      </c>
+      <c r="T7">
+        <v>0.04233657090322201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.06821033333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.204631</v>
+      </c>
+      <c r="I8">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="J8">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>30.94593233333333</v>
+      </c>
+      <c r="N8">
+        <v>92.83779699999999</v>
+      </c>
+      <c r="O8">
+        <v>0.4955285863849104</v>
+      </c>
+      <c r="P8">
+        <v>0.4955285863849105</v>
+      </c>
+      <c r="Q8">
+        <v>2.110832359767444</v>
+      </c>
+      <c r="R8">
+        <v>18.997491237907</v>
+      </c>
+      <c r="S8">
+        <v>0.1246774082482551</v>
+      </c>
+      <c r="T8">
+        <v>0.1246774082482551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.06821033333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.204631</v>
+      </c>
+      <c r="I9">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="J9">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.495209666666667</v>
+      </c>
+      <c r="N9">
+        <v>19.485629</v>
+      </c>
+      <c r="O9">
+        <v>0.1040059814559238</v>
+      </c>
+      <c r="P9">
+        <v>0.1040059814559238</v>
+      </c>
+      <c r="Q9">
+        <v>0.4430404164332222</v>
+      </c>
+      <c r="R9">
+        <v>3.987363747899</v>
+      </c>
+      <c r="S9">
+        <v>0.02616841200795662</v>
+      </c>
+      <c r="T9">
+        <v>0.02616841200795662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.06821033333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.204631</v>
+      </c>
+      <c r="I10">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="J10">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>9.909791666666667</v>
+      </c>
+      <c r="N10">
+        <v>29.729375</v>
+      </c>
+      <c r="O10">
+        <v>0.1586827309986352</v>
+      </c>
+      <c r="P10">
+        <v>0.1586827309986352</v>
+      </c>
+      <c r="Q10">
+        <v>0.6759501928472222</v>
+      </c>
+      <c r="R10">
+        <v>6.083551735625001</v>
+      </c>
+      <c r="S10">
+        <v>0.03992534876544377</v>
+      </c>
+      <c r="T10">
+        <v>0.03992534876544377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.06821033333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.204631</v>
+      </c>
+      <c r="I11">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="J11">
+        <v>0.2516048754277311</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.591137333333333</v>
+      </c>
+      <c r="N11">
+        <v>13.773412</v>
+      </c>
+      <c r="O11">
+        <v>0.07351660205871713</v>
+      </c>
+      <c r="P11">
+        <v>0.07351660205871713</v>
+      </c>
+      <c r="Q11">
+        <v>0.3131630078857778</v>
+      </c>
+      <c r="R11">
+        <v>2.818467070972</v>
+      </c>
+      <c r="S11">
+        <v>0.0184971355028536</v>
+      </c>
+      <c r="T11">
+        <v>0.0184971355028536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.035101</v>
+      </c>
+      <c r="H12">
+        <v>0.105303</v>
+      </c>
+      <c r="I12">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="J12">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10.50827633333333</v>
+      </c>
+      <c r="N12">
+        <v>31.524829</v>
+      </c>
+      <c r="O12">
+        <v>0.1682660991018133</v>
+      </c>
+      <c r="P12">
+        <v>0.1682660991018134</v>
+      </c>
+      <c r="Q12">
+        <v>0.3688510075763333</v>
+      </c>
+      <c r="R12">
+        <v>3.319659068187</v>
+      </c>
+      <c r="S12">
+        <v>0.0217863760907291</v>
+      </c>
+      <c r="T12">
+        <v>0.0217863760907291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.035101</v>
+      </c>
+      <c r="H13">
+        <v>0.105303</v>
+      </c>
+      <c r="I13">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="J13">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>30.94593233333333</v>
+      </c>
+      <c r="N13">
+        <v>92.83779699999999</v>
+      </c>
+      <c r="O13">
+        <v>0.4955285863849104</v>
+      </c>
+      <c r="P13">
+        <v>0.4955285863849105</v>
+      </c>
+      <c r="Q13">
+        <v>1.086233170832333</v>
+      </c>
+      <c r="R13">
+        <v>9.776098537490999</v>
+      </c>
+      <c r="S13">
+        <v>0.06415892567971621</v>
+      </c>
+      <c r="T13">
+        <v>0.06415892567971621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.035101</v>
+      </c>
+      <c r="H14">
+        <v>0.105303</v>
+      </c>
+      <c r="I14">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="J14">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.495209666666667</v>
+      </c>
+      <c r="N14">
+        <v>19.485629</v>
+      </c>
+      <c r="O14">
+        <v>0.1040059814559238</v>
+      </c>
+      <c r="P14">
+        <v>0.1040059814559238</v>
+      </c>
+      <c r="Q14">
+        <v>0.2279883545096667</v>
+      </c>
+      <c r="R14">
+        <v>2.051895190587</v>
+      </c>
+      <c r="S14">
+        <v>0.01346625041989657</v>
+      </c>
+      <c r="T14">
+        <v>0.01346625041989657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.035101</v>
+      </c>
+      <c r="H15">
+        <v>0.105303</v>
+      </c>
+      <c r="I15">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="J15">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.909791666666667</v>
+      </c>
+      <c r="N15">
+        <v>29.729375</v>
+      </c>
+      <c r="O15">
+        <v>0.1586827309986352</v>
+      </c>
+      <c r="P15">
+        <v>0.1586827309986352</v>
+      </c>
+      <c r="Q15">
+        <v>0.3478435972916667</v>
+      </c>
+      <c r="R15">
+        <v>3.130592375625</v>
+      </c>
+      <c r="S15">
+        <v>0.02054556250542453</v>
+      </c>
+      <c r="T15">
+        <v>0.02054556250542452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.035101</v>
+      </c>
+      <c r="H16">
+        <v>0.105303</v>
+      </c>
+      <c r="I16">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="J16">
+        <v>0.1294757304473241</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.591137333333333</v>
+      </c>
+      <c r="N16">
+        <v>13.773412</v>
+      </c>
+      <c r="O16">
+        <v>0.07351660205871713</v>
+      </c>
+      <c r="P16">
+        <v>0.07351660205871713</v>
+      </c>
+      <c r="Q16">
+        <v>0.1611535115373333</v>
+      </c>
+      <c r="R16">
+        <v>1.450381603836</v>
+      </c>
+      <c r="S16">
+        <v>0.009518615751557649</v>
+      </c>
+      <c r="T16">
+        <v>0.009518615751557647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06980633333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.209419</v>
+      </c>
+      <c r="I17">
+        <v>0.2574919802336891</v>
+      </c>
+      <c r="J17">
+        <v>0.257491980233689</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.50827633333333</v>
+      </c>
+      <c r="N17">
+        <v>31.524829</v>
+      </c>
+      <c r="O17">
+        <v>0.1682660991018133</v>
+      </c>
+      <c r="P17">
+        <v>0.1682660991018134</v>
+      </c>
+      <c r="Q17">
+        <v>0.7335442404834444</v>
+      </c>
+      <c r="R17">
+        <v>6.601898164351</v>
+      </c>
+      <c r="S17">
+        <v>0.04332717106392409</v>
+      </c>
+      <c r="T17">
+        <v>0.04332717106392409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06980633333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.209419</v>
+      </c>
+      <c r="I18">
+        <v>0.2574919802336891</v>
+      </c>
+      <c r="J18">
+        <v>0.257491980233689</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>30.94593233333333</v>
+      </c>
+      <c r="N18">
+        <v>92.83779699999999</v>
+      </c>
+      <c r="O18">
+        <v>0.4955285863849104</v>
+      </c>
+      <c r="P18">
+        <v>0.4955285863849105</v>
+      </c>
+      <c r="Q18">
+        <v>2.160222067771444</v>
+      </c>
+      <c r="R18">
+        <v>19.441998609943</v>
+      </c>
+      <c r="S18">
+        <v>0.1275946369706512</v>
+      </c>
+      <c r="T18">
+        <v>0.1275946369706512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06980633333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.209419</v>
+      </c>
+      <c r="I19">
+        <v>0.2574919802336891</v>
+      </c>
+      <c r="J19">
+        <v>0.257491980233689</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.495209666666667</v>
+      </c>
+      <c r="N19">
+        <v>19.485629</v>
+      </c>
+      <c r="O19">
+        <v>0.1040059814559238</v>
+      </c>
+      <c r="P19">
+        <v>0.1040059814559238</v>
+      </c>
+      <c r="Q19">
+        <v>0.4534067710612222</v>
+      </c>
+      <c r="R19">
+        <v>4.080660939551</v>
+      </c>
+      <c r="S19">
+        <v>0.02678070612123416</v>
+      </c>
+      <c r="T19">
+        <v>0.02678070612123415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06980633333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.209419</v>
+      </c>
+      <c r="I20">
+        <v>0.2574919802336891</v>
+      </c>
+      <c r="J20">
+        <v>0.257491980233689</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>9.909791666666667</v>
+      </c>
+      <c r="N20">
+        <v>29.729375</v>
+      </c>
+      <c r="O20">
+        <v>0.1586827309986352</v>
+      </c>
+      <c r="P20">
+        <v>0.1586827309986352</v>
+      </c>
+      <c r="Q20">
+        <v>0.6917662203472222</v>
+      </c>
+      <c r="R20">
+        <v>6.225895983125</v>
+      </c>
+      <c r="S20">
+        <v>0.04085953063372837</v>
+      </c>
+      <c r="T20">
+        <v>0.04085953063372836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06980633333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.209419</v>
+      </c>
+      <c r="I21">
+        <v>0.2574919802336891</v>
+      </c>
+      <c r="J21">
+        <v>0.257491980233689</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.591137333333333</v>
+      </c>
+      <c r="N21">
+        <v>13.773412</v>
+      </c>
+      <c r="O21">
+        <v>0.07351660205871713</v>
+      </c>
+      <c r="P21">
+        <v>0.07351660205871713</v>
+      </c>
+      <c r="Q21">
+        <v>0.3204904630697777</v>
+      </c>
+      <c r="R21">
+        <v>2.884414167628</v>
+      </c>
+      <c r="S21">
+        <v>0.01892993544415118</v>
+      </c>
+      <c r="T21">
+        <v>0.01892993544415117</v>
       </c>
     </row>
   </sheetData>
